--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_20_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_20_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33795.87462788753</v>
+        <v>6725379.050949619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33795.87462788753</v>
+        <v>6725379.050949619</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13627.05253126301</v>
+        <v>818317.3202706322</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13627.05253126301</v>
+        <v>818317.3202706322</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1113365710.605102</v>
+        <v>46156543.14942788</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10605.78365468705</v>
+        <v>1166315.12721553</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19682.83009333529</v>
+        <v>2079363.481456661</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28759.87653198349</v>
+        <v>2992411.835697793</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38311.74216721616</v>
+        <v>3875083.407321545</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47863.60780244879</v>
+        <v>4757754.978945296</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>57050.14888096817</v>
+        <v>5670524.099288738</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66236.68995948756</v>
+        <v>6583293.219632178</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>75423.23103800694</v>
+        <v>7496062.339975616</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84795.93882273504</v>
+        <v>8376617.482944327</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>94203.49105190761</v>
+        <v>9264106.670357483</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>103598.7733475739</v>
+        <v>10152721.85206012</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>112993.2637240483</v>
+        <v>11041179.44184357</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>122387.7541005227</v>
+        <v>11929637.03162702</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>131795.7304800253</v>
+        <v>12817270.32140733</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>141203.7068595279</v>
+        <v>13704903.61118764</v>
       </c>
     </row>
   </sheetData>
@@ -27037,25 +27037,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>276</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>73</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>825</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
